--- a/feedback_forms/testing_versions/standard/generic_operator_feedback_v002_test_01_good_data.xlsx
+++ b/feedback_forms/testing_versions/standard/generic_operator_feedback_v002_test_01_good_data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1543E97-C1BF-4A76-BB24-A655BE564A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC1B22-90F0-46E3-95B7-7AD6382161E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="YolAQ5HaYdNBmGkU+s5Xlk/YEZV8evpaGiEPBvD+BdoTIEIywQSdLhqIU1v31lPHE7T+bj3MO1q5cQnR4V8uCQ==" workbookSaltValue="dFvh9ANB9KKRkw47okP0Vg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="1020" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="6429" yWindow="4080" windowWidth="21728" windowHeight="13260" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -2547,19 +2547,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.07421875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="65.69140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.69140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="65.69140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2595,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
@@ -2604,7 +2606,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2613,13 +2615,13 @@
       <c r="E3" s="21"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -2689,12 +2691,12 @@
       <c r="AF6" s="45"/>
       <c r="AG6" s="45"/>
     </row>
-    <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG7" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="46" t="s">
         <v>3</v>
       </c>
@@ -2703,7 +2705,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="40"/>
     </row>
-    <row r="9" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="26" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
@@ -2712,7 +2714,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="40"/>
     </row>
-    <row r="10" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="26" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
         <v>5</v>
       </c>
@@ -2721,7 +2723,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="40"/>
     </row>
-    <row r="11" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="26" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="49" t="s">
         <v>6</v>
       </c>
@@ -2730,7 +2732,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="46" t="s">
         <v>7</v>
       </c>
@@ -2739,7 +2741,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="40"/>
     </row>
-    <row r="13" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B13" s="46" t="s">
         <v>8</v>
       </c>
@@ -2748,7 +2750,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="40"/>
     </row>
-    <row r="14" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B14" s="46" t="s">
         <v>9</v>
       </c>
@@ -2757,7 +2759,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="40"/>
     </row>
-    <row r="15" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +2768,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="40"/>
     </row>
-    <row r="16" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B16" s="46" t="s">
         <v>11</v>
       </c>
@@ -2775,7 +2777,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="40"/>
     </row>
-    <row r="17" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B17" s="46" t="s">
         <v>12</v>
       </c>
@@ -2784,7 +2786,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="40"/>
     </row>
-    <row r="18" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B18" s="50" t="s">
         <v>13</v>
       </c>
@@ -2793,12 +2795,12 @@
       <c r="E18" s="25"/>
       <c r="F18" s="40"/>
     </row>
-    <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG20" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
@@ -2832,23 +2834,23 @@
       <c r="AF21" s="45"/>
       <c r="AG21" s="45"/>
     </row>
-    <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG22" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B23" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="55">
-        <v>2021</v>
+        <v>1002021</v>
       </c>
       <c r="E23" s="46"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B24" s="46" t="s">
         <v>15</v>
       </c>
@@ -2858,7 +2860,7 @@
       </c>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B25" s="46" t="s">
         <v>16</v>
       </c>
@@ -2868,7 +2870,7 @@
       </c>
       <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B26" s="46" t="s">
         <v>17</v>
       </c>
@@ -2879,7 +2881,7 @@
       <c r="E26" s="46"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B27" s="46" t="s">
         <v>18</v>
       </c>
@@ -2890,7 +2892,7 @@
       <c r="E27" s="46"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B28" s="46" t="s">
         <v>19</v>
       </c>
@@ -2902,12 +2904,12 @@
       <c r="F28" s="40"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG29" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -2941,12 +2943,12 @@
       <c r="AF30" s="45"/>
       <c r="AG30" s="45"/>
     </row>
-    <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG31" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B32" s="40" t="s">
         <v>20</v>
       </c>
@@ -2957,7 +2959,7 @@
       <c r="E32" s="43"/>
       <c r="G32" s="26"/>
     </row>
-    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B33" s="40" t="s">
         <v>21</v>
       </c>
@@ -2968,7 +2970,7 @@
       <c r="E33" s="43"/>
       <c r="G33" s="26"/>
     </row>
-    <row r="34" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B34" s="40" t="s">
         <v>22</v>
       </c>
@@ -2979,7 +2981,7 @@
       <c r="E34" s="43"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B35" s="40" t="s">
         <v>23</v>
       </c>
@@ -2990,7 +2992,7 @@
       <c r="E35" s="43"/>
       <c r="G35" s="26"/>
     </row>
-    <row r="36" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B36" s="40" t="s">
         <v>24</v>
       </c>
@@ -3001,12 +3003,12 @@
       <c r="E36" s="43"/>
       <c r="G36" s="26"/>
     </row>
-    <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG37" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
@@ -3040,12 +3042,12 @@
       <c r="AF38" s="45"/>
       <c r="AG38" s="45"/>
     </row>
-    <row r="39" spans="2:33" s="20" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:33" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AG39" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:33" s="10" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="40" t="s">
         <v>25</v>
       </c>
@@ -3055,7 +3057,7 @@
       </c>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="30.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B41" s="40" t="s">
         <v>27</v>
       </c>
@@ -3066,7 +3068,7 @@
       <c r="E41" s="27"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B42" s="28" t="s">
         <v>28</v>
       </c>
@@ -3076,7 +3078,7 @@
       </c>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B43" s="28" t="s">
         <v>29</v>
       </c>
@@ -3086,7 +3088,7 @@
       </c>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B44" s="28" t="s">
         <v>30</v>
       </c>
@@ -3096,12 +3098,12 @@
       </c>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG45" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
@@ -3135,13 +3137,13 @@
       <c r="AF46" s="45"/>
       <c r="AG46" s="45"/>
     </row>
-    <row r="47" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B47" s="40"/>
       <c r="AG47" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B48" s="28" t="s">
         <v>31</v>
       </c>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:33" s="10" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B49" s="35" t="s">
         <v>32</v>
       </c>
@@ -3164,7 +3166,7 @@
       <c r="E49" s="20"/>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="2:33" s="10" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:33" s="10" customFormat="1" ht="30.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="28" t="s">
         <v>33</v>
       </c>
@@ -3175,7 +3177,7 @@
       <c r="E50" s="20"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:33" s="10" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="42" t="s">
         <v>147</v>
       </c>
@@ -3186,7 +3188,7 @@
       <c r="E51" s="20"/>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:33" s="10" customFormat="1" ht="45.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B52" s="52" t="s">
         <v>150</v>
       </c>
@@ -3197,12 +3199,12 @@
       <c r="E52" s="20"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
       <c r="D53" s="43"/>
     </row>
-    <row r="54" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
       <c r="D54" s="44"/>
@@ -3236,12 +3238,12 @@
       <c r="AF54" s="45"/>
       <c r="AG54" s="45"/>
     </row>
-    <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG55" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:33" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:33" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B56" s="40" t="s">
         <v>34</v>
       </c>
@@ -3250,7 +3252,7 @@
       </c>
       <c r="G56" s="26"/>
     </row>
-    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B57" s="40" t="s">
         <v>35</v>
       </c>
@@ -3259,7 +3261,7 @@
       </c>
       <c r="G57" s="26"/>
     </row>
-    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B58" s="28" t="s">
         <v>36</v>
       </c>
@@ -3268,7 +3270,7 @@
       </c>
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B59" s="28" t="s">
         <v>37</v>
       </c>
@@ -3277,15 +3279,15 @@
       </c>
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B60" s="43"/>
       <c r="D60" s="29"/>
     </row>
-    <row r="61" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="63" spans="2:33" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="2:33" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.4">
       <c r="B63" s="28" t="s">
         <v>38</v>
       </c>
@@ -3338,19 +3340,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="10.64453125" customWidth="1"/>
-    <col min="4" max="4" width="80.64453125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="80.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3374,17 +3376,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>170</v>
       </c>
@@ -3395,7 +3397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>172</v>
       </c>
@@ -3406,72 +3408,72 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" s="13"/>
       <c r="C13" s="53"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="13"/>
       <c r="C15" s="53"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3493,18 +3495,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="11" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
@@ -3512,7 +3514,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3526,7 +3528,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3534,15 +3536,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
@@ -3561,7 +3563,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
         <v>47</v>
       </c>
@@ -3572,7 +3574,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>49</v>
       </c>
@@ -3583,7 +3585,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
         <v>51</v>
       </c>
@@ -3594,15 +3596,15 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B14" s="10"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
@@ -3619,7 +3621,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -3633,7 +3635,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>54</v>
       </c>
@@ -3664,7 +3666,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>1</v>
       </c>
@@ -3684,7 +3686,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>2</v>
       </c>
@@ -3704,7 +3706,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>3</v>
       </c>
@@ -3713,7 +3715,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>4</v>
       </c>
@@ -3722,7 +3724,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>5</v>
       </c>
@@ -3731,7 +3733,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>6</v>
       </c>
@@ -3740,7 +3742,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>7</v>
       </c>
@@ -3749,7 +3751,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>8</v>
       </c>
@@ -3758,7 +3760,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>9</v>
       </c>
@@ -3767,7 +3769,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>10</v>
       </c>
@@ -3776,7 +3778,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>11</v>
       </c>
@@ -3785,7 +3787,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>12</v>
       </c>
@@ -3794,7 +3796,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>13</v>
       </c>
@@ -3803,7 +3805,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>14</v>
       </c>
@@ -3812,7 +3814,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>15</v>
       </c>
@@ -3821,7 +3823,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>16</v>
       </c>
@@ -3830,7 +3832,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>17</v>
       </c>
@@ -3839,7 +3841,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="10">
         <v>18</v>
       </c>
@@ -3848,7 +3850,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="10">
         <v>19</v>
       </c>
@@ -3857,7 +3859,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10">
         <v>20</v>
       </c>
@@ -3866,7 +3868,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10">
         <v>21</v>
       </c>
@@ -3875,7 +3877,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10">
         <v>22</v>
       </c>
@@ -3884,7 +3886,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10">
         <v>23</v>
       </c>
@@ -3893,7 +3895,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10">
         <v>24</v>
       </c>
@@ -3902,7 +3904,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10">
         <v>25</v>
       </c>
@@ -3911,7 +3913,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10">
         <v>26</v>
       </c>
@@ -3920,7 +3922,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="10">
         <v>27</v>
       </c>
@@ -3929,7 +3931,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10">
         <v>28</v>
       </c>
@@ -3938,7 +3940,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10">
         <v>29</v>
       </c>
@@ -3947,7 +3949,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10">
         <v>30</v>
       </c>
@@ -3956,7 +3958,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="10">
         <v>31</v>
       </c>
@@ -3965,7 +3967,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B50" s="10">
         <v>32</v>
       </c>
@@ -3974,7 +3976,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10">
         <v>33</v>
       </c>
@@ -3983,7 +3985,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10">
         <v>34</v>
       </c>
@@ -3992,7 +3994,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10">
         <v>35</v>
       </c>
@@ -4001,7 +4003,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10">
         <v>36</v>
       </c>
@@ -4010,7 +4012,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10">
         <v>37</v>
       </c>
@@ -4019,7 +4021,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10">
         <v>38</v>
       </c>
@@ -4028,7 +4030,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B57" s="10">
         <v>39</v>
       </c>
@@ -4038,7 +4040,7 @@
       <c r="G57" s="13"/>
       <c r="L57" s="17"/>
     </row>
-    <row r="58" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="10">
         <v>40</v>
       </c>
@@ -4047,7 +4049,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="10">
         <v>41</v>
       </c>
@@ -4056,7 +4058,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B60" s="10">
         <v>42</v>
       </c>
@@ -4065,7 +4067,7 @@
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B61" s="10">
         <v>43</v>
       </c>
@@ -4074,7 +4076,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="10">
         <v>44</v>
       </c>
@@ -4083,7 +4085,7 @@
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="10">
         <v>45</v>
       </c>
@@ -4092,7 +4094,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="10">
         <v>46</v>
       </c>
@@ -4101,7 +4103,7 @@
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" s="10">
         <v>47</v>
       </c>
@@ -4110,7 +4112,7 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="10">
         <v>48</v>
       </c>
@@ -4119,7 +4121,7 @@
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="10">
         <v>49</v>
       </c>
@@ -4128,7 +4130,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B68" s="10">
         <v>50</v>
       </c>
@@ -4137,7 +4139,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10">
         <v>51</v>
       </c>
@@ -4146,7 +4148,7 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="10">
         <v>52</v>
       </c>
@@ -4155,7 +4157,7 @@
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="10">
         <v>53</v>
       </c>
@@ -4164,7 +4166,7 @@
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" s="10">
         <v>54</v>
       </c>
@@ -4173,7 +4175,7 @@
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B73" s="10">
         <v>55</v>
       </c>
@@ -4182,7 +4184,7 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B74" s="10">
         <v>56</v>
       </c>
@@ -4191,7 +4193,7 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B75" s="10">
         <v>57</v>
       </c>
@@ -4200,7 +4202,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B76" s="10">
         <v>58</v>
       </c>
@@ -4209,7 +4211,7 @@
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B77" s="10">
         <v>59</v>
       </c>
@@ -4218,7 +4220,7 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B78" s="10">
         <v>60</v>
       </c>
@@ -4227,7 +4229,7 @@
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B79" s="10">
         <v>61</v>
       </c>
@@ -4236,7 +4238,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B80" s="10">
         <v>62</v>
       </c>
@@ -4245,7 +4247,7 @@
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B81" s="10">
         <v>63</v>
       </c>
@@ -4254,7 +4256,7 @@
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B82" s="10">
         <v>64</v>
       </c>
@@ -4263,7 +4265,7 @@
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
     </row>
-    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" s="10">
         <v>65</v>
       </c>
@@ -4272,7 +4274,7 @@
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="10">
         <v>66</v>
       </c>
@@ -4280,7 +4282,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B85" s="10">
         <v>67</v>
       </c>
@@ -4289,7 +4291,7 @@
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="10">
         <v>68</v>
       </c>
@@ -4298,7 +4300,7 @@
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B87" s="10">
         <v>69</v>
       </c>
@@ -4307,7 +4309,7 @@
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B88" s="10">
         <v>70</v>
       </c>
@@ -4316,7 +4318,7 @@
       <c r="F88" s="13"/>
       <c r="G88" s="36"/>
     </row>
-    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B89" s="10">
         <v>71</v>
       </c>
@@ -4325,7 +4327,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="36"/>
     </row>
-    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10">
         <v>72</v>
       </c>
@@ -4334,7 +4336,7 @@
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" s="10">
         <v>73</v>
       </c>
@@ -4343,7 +4345,7 @@
       <c r="F91" s="13"/>
       <c r="G91" s="36"/>
     </row>
-    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10">
         <v>74</v>
       </c>
@@ -4352,7 +4354,7 @@
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B93" s="10">
         <v>75</v>
       </c>
@@ -4361,7 +4363,7 @@
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="10">
         <v>76</v>
       </c>
@@ -4370,7 +4372,7 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="10">
         <v>77</v>
       </c>
@@ -4379,7 +4381,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B96" s="10">
         <v>78</v>
       </c>
@@ -4388,7 +4390,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B97" s="10">
         <v>79</v>
       </c>
@@ -4397,7 +4399,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B98" s="10">
         <v>80</v>
       </c>
@@ -4406,7 +4408,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" s="10">
         <v>81</v>
       </c>
@@ -4415,7 +4417,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10">
         <v>82</v>
       </c>
@@ -4424,7 +4426,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" s="10">
         <v>83</v>
       </c>
@@ -4433,7 +4435,7 @@
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
     </row>
-    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10">
         <v>84</v>
       </c>
@@ -4442,7 +4444,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
     </row>
-    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10">
         <v>85</v>
       </c>
@@ -4451,7 +4453,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="10">
         <v>86</v>
       </c>
@@ -4460,7 +4462,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="10">
         <v>87</v>
       </c>
@@ -4470,7 +4472,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="10">
         <v>88</v>
       </c>
@@ -4480,7 +4482,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="10">
         <v>89</v>
       </c>
@@ -4490,7 +4492,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="10">
         <v>90</v>
       </c>
@@ -4500,7 +4502,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="10">
         <v>91</v>
       </c>
@@ -4510,7 +4512,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" s="10">
         <v>92</v>
       </c>
@@ -4520,7 +4522,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="10">
         <v>93</v>
       </c>
@@ -4529,7 +4531,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="10">
         <v>94</v>
       </c>
@@ -4539,7 +4541,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="10">
         <v>95</v>
       </c>
@@ -4549,7 +4551,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" s="10">
         <v>96</v>
       </c>
@@ -4559,7 +4561,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" s="10">
         <v>97</v>
       </c>
@@ -4569,7 +4571,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="10">
         <v>98</v>
       </c>
@@ -4579,7 +4581,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="10">
         <v>99</v>
       </c>
@@ -4589,7 +4591,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="10">
         <v>100</v>
       </c>
@@ -4622,21 +4624,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1171875" customWidth="1"/>
-    <col min="4" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="17" width="16.703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="92.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.07421875" customWidth="1"/>
+    <col min="4" max="5" width="16.69140625" customWidth="1"/>
+    <col min="6" max="17" width="16.69140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="38" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="38" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4656,7 +4658,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4675,7 +4677,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4694,7 +4696,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -4707,7 +4709,7 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -4720,91 +4722,91 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="10" spans="1:17" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:7" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G33"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
@@ -4813,12 +4815,12 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>26</v>
       </c>
@@ -4828,7 +4830,7 @@
       </c>
       <c r="G36"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:B39">_carb_only_table_02[]</f>
         <v>Operator was aware of the leak prior to receiving the CARB plume notification</v>
@@ -4838,7 +4840,7 @@
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" t="str">
         <v>Operator detected a leak during follow-up monitoring after receipt of the CARB plume notification</v>
       </c>
@@ -4847,7 +4849,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" t="str">
         <v>No leak was detected</v>
       </c>
@@ -4856,18 +4858,18 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G40"/>
     </row>
-    <row r="42" spans="2:7" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:7" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="39" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G43"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="7" t="s">
         <v>77</v>
       </c>
@@ -4876,12 +4878,12 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>26</v>
       </c>
@@ -4891,7 +4893,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47:B51">_carb_only_table_03[]</f>
         <v>Not applicable as no leak was detected</v>
@@ -4901,7 +4903,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" t="str">
         <v>Operator was aware of the leak prior to receiving the notification, and/or repairs were in progress on the date of the plume observation</v>
       </c>
@@ -4910,7 +4912,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" t="str">
         <v>An unintentional leak  (i.e., the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -4919,7 +4921,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" t="str">
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
@@ -4927,7 +4929,7 @@
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" t="str">
         <v>Due to a temporary activity (i.e., would be resolved without corrective action when the activity is complete)</v>
       </c>
@@ -4956,19 +4958,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="9" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4984,7 +4986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -5031,18 +5033,18 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5050,7 +5052,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -5058,7 +5060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5066,7 +5068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -5074,12 +5076,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>92</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -5119,24 +5121,24 @@
       <selection activeCell="A11" sqref="A11:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="25.1171875" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" customWidth="1"/>
-    <col min="4" max="4" width="32.41015625" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="25.07421875" customWidth="1"/>
+    <col min="3" max="3" width="16.3828125" customWidth="1"/>
+    <col min="4" max="4" width="32.3828125" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="12"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5146,26 +5148,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5" t="s">
         <v>84</v>
       </c>
@@ -5182,7 +5184,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -5196,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -5210,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>86</v>
       </c>
@@ -5224,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -5238,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -5252,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -5266,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -5311,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>86</v>
       </c>
@@ -5353,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>86</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>86</v>
       </c>
@@ -5381,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>86</v>
       </c>
@@ -5395,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -5409,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>86</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -5437,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>86</v>
       </c>
@@ -5451,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -5468,7 +5470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>86</v>
       </c>
@@ -5496,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>86</v>
       </c>
@@ -5510,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>86</v>
       </c>
@@ -5524,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>86</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>86</v>
       </c>
@@ -5552,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -5578,6 +5580,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5812,27 +5834,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5851,25 +5872,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>

--- a/feedback_forms/testing_versions/standard/generic_operator_feedback_v002_test_01_good_data.xlsx
+++ b/feedback_forms/testing_versions/standard/generic_operator_feedback_v002_test_01_good_data.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC1B22-90F0-46E3-95B7-7AD6382161E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3684108E-81F1-480E-BD32-461CC4E6C60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="YolAQ5HaYdNBmGkU+s5Xlk/YEZV8evpaGiEPBvD+BdoTIEIywQSdLhqIU1v31lPHE7T+bj3MO1q5cQnR4V8uCQ==" workbookSaltValue="dFvh9ANB9KKRkw47okP0Vg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="6429" yWindow="4080" windowWidth="21728" windowHeight="13260" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="8434" yWindow="2331" windowWidth="21729" windowHeight="13260" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -2547,8 +2547,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="55">
-        <v>31</v>
+        <v>35.321100000000001</v>
       </c>
       <c r="E26" s="46"/>
       <c r="G26" s="26"/>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="55">
-        <v>-115</v>
+        <v>-119.5808</v>
       </c>
       <c r="E27" s="46"/>
       <c r="G27" s="26"/>
